--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2640.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2640.xlsx
@@ -354,7 +354,7 @@
         <v>1.488769897602042</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.611504538140197</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2640.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2640.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8086791614823491</v>
+        <v>1.196864008903503</v>
       </c>
       <c r="B1">
-        <v>1.488769897602042</v>
+        <v>2.224249839782715</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.518677234649658</v>
       </c>
       <c r="D1">
-        <v>1.611504538140197</v>
+        <v>2.48425817489624</v>
       </c>
       <c r="E1">
-        <v>0.869408926482739</v>
+        <v>1.128379821777344</v>
       </c>
     </row>
   </sheetData>
